--- a/biology/Botanique/Piccolo_(vin)/Piccolo_(vin).xlsx
+++ b/biology/Botanique/Piccolo_(vin)/Piccolo_(vin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le piccolo est un terme vieilli qui appartient à la langue populaire comme le mot « pinard ».
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon le Dictionnaire d'argot de langue française, le picolo ou piccolo (« petit » en italien) a été importé par des taverniers italiens fin XIXe siècle et a pour sens « petit vin sucré », « vin léger », « petit vin suret », « vin » en général. De là « piccoler » ou « picoler[1] ». Les ceps[2] qui donnaient du vin de bonne qualité se cultivaient sur les pentes de la rive droite de l'Oise, notamment à Cergy et sur les coteaux calcaires de la vallée de Montmorency. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon le Dictionnaire d'argot de langue française, le picolo ou piccolo (« petit » en italien) a été importé par des taverniers italiens fin XIXe siècle et a pour sens « petit vin sucré », « vin léger », « petit vin suret », « vin » en général. De là « piccoler » ou « picoler ». Les ceps qui donnaient du vin de bonne qualité se cultivaient sur les pentes de la rive droite de l'Oise, notamment à Cergy et sur les coteaux calcaires de la vallée de Montmorency. 
 Jusqu'à la fin du XIXe siècle, Argenteuil possédait le plus grand vignoble sur 1 000 hectares et produisait le piccolo ou picolo que certains taverniers vendaient "à l'heure". 
 À Pontoise, on produisait le ginglet, où à la suite du phylloxéra et la Grande Guerre, il ne reste plus que quelques ares de vignes dont la récolte est vendue lors de la foire Saint-Martin de Pontoise.
 </t>
@@ -544,7 +558,9 @@
           <t>Cépage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pelaverga piccolo n'étant plus cultivé à Argenteuil depuis la crise du phylloxéra au début du XXe siècle, les ceps ne prolifèrent plus qu'à l'état sauvage dans les jardins abandonnés avec des grumes souvent dégénérées.
 </t>
@@ -575,9 +591,11 @@
           <t>Renaissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Beaucoup d'anciennes communes viticoles de la région parisienne ont replanté des vignes municipales et vendangent à nouveau le plus souvent des cépages pinot noir et chardonnay[3]. Depuis 2020 ces productions bénéficient d'une reconnaissance d'indication géographique protégée (IGP)[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Beaucoup d'anciennes communes viticoles de la région parisienne ont replanté des vignes municipales et vendangent à nouveau le plus souvent des cépages pinot noir et chardonnay. Depuis 2020 ces productions bénéficient d'une reconnaissance d'indication géographique protégée (IGP).
 </t>
         </is>
       </c>
